--- a/qa/01.测试用例/宠物系统/宠物图鉴/宠物图鉴测试用例.xlsx
+++ b/qa/01.测试用例/宠物系统/宠物图鉴/宠物图鉴测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="711" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="711" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="17" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="IM提示" sheetId="37" r:id="rId5"/>
     <sheet name="附录" sheetId="27" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="655">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -308,14 +308,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>字色</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式为“收集宠物 n/m”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>查看收集宠物拥有数量显示（n）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -584,10 +576,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>使用通用宠物头像icon</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物A</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -613,14 +601,6 @@
   </si>
   <si>
     <t>宠物玩家已拥有，但被消耗掉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像显示为彩色头像</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像显示为暗色头像</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2500,6 +2480,78 @@
   <si>
     <t>unitRarity.csv中可配</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看UI动画</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图所示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式为“( n/m)”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看可召唤数量提示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“可召唤xxx”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看可召唤数量显示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有宠物可召唤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>有1只可召唤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>有5只可召唤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“可召唤0”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“可召唤1”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“可召唤5”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用通用宠物头像icon，显示稀有度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像显示为暗色头像，如图</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像显示为彩色头像，如图</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2760,7 +2812,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2848,6 +2900,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -3305,7 +3363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3498,6 +3556,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3507,11 +3574,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="137">
@@ -3653,18 +3717,7 @@
     <cellStyle name="好 2" xfId="79"/>
     <cellStyle name="检查单元格 2" xfId="25"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <font>
         <b/>
@@ -3711,288 +3764,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4344,227 +4115,6 @@
         <color indexed="48"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4580,138 +4130,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="组合 3"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11401425" y="2371724"/>
-          <a:ext cx="2219325" cy="1381126"/>
-          <a:chOff x="7114443" y="1084386"/>
-          <a:chExt cx="5546480" cy="3676402"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="图片 4"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7114443" y="1084386"/>
-            <a:ext cx="5546480" cy="3676402"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="图片 5"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8081598" y="1311521"/>
-            <a:ext cx="1091710" cy="193389"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="图片 6"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9275884" y="1216271"/>
-            <a:ext cx="1310133" cy="285749"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="图片 7"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11078308" y="1238251"/>
-            <a:ext cx="574035" cy="307730"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4722,7 +4151,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4743,18 +4172,170 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915276" y="4305300"/>
+          <a:ext cx="266700" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296650" y="971551"/>
+          <a:ext cx="2085975" cy="1400010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296650" y="2438401"/>
+          <a:ext cx="2114550" cy="1414860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11601450" y="10877550"/>
+          <a:ext cx="514350" cy="504395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44282</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4767,8 +4348,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7915276" y="4305300"/>
-          <a:ext cx="266700" cy="247650"/>
+          <a:off x="12172950" y="10487025"/>
+          <a:ext cx="472907" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5580,10 +5161,10 @@
     </row>
     <row r="7" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6729,11 +6310,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -6758,9 +6339,9 @@
       <c r="C1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" s="36" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -6811,170 +6392,171 @@
         <v>56</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>523</v>
-      </c>
-      <c r="I3" s="77" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D4" s="33">
+        <v>518</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40"/>
+      <c r="B4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="39" t="s">
+        <v>637</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>638</v>
+      </c>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D5" s="33">
         <v>2</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="D5" s="33">
-        <v>3</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>60</v>
-      </c>
       <c r="H5" s="33" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="D6" s="33">
+        <v>3</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="D7" s="33">
         <v>4</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E7" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="45" t="s">
+      <c r="H7" s="33" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C9" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D9" s="33">
         <v>1</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="35" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F9" s="35" t="s">
+      <c r="G9" s="35" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F10" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="35" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="F10" s="35" t="s">
+      <c r="G10" s="35" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="F11" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G11" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H11" s="33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="33">
+        <v>2</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="33" t="s">
         <v>527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="33">
-        <v>2</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F12" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F13" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>530</v>
+        <v>74</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F14" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F15" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="35" t="s">
-        <v>531</v>
-      </c>
-      <c r="H14" s="33" t="s">
+      <c r="G15" s="35" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D15" s="33">
+      <c r="H15" s="33" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D16" s="33">
         <v>3</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E16" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>533</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="50"/>
-      <c r="D16" s="50"/>
       <c r="F16" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="50" t="s">
-        <v>535</v>
+        <v>104</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>528</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6982,340 +6564,354 @@
       <c r="B17" s="50"/>
       <c r="D17" s="50"/>
       <c r="F17" s="48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G17" s="48"/>
       <c r="H17" s="50" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
       <c r="B18" s="50"/>
       <c r="D18" s="50"/>
       <c r="F18" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>534</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G18" s="48"/>
       <c r="H18" s="50" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D19" s="33">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A19" s="40"/>
+      <c r="B19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="F19" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D20" s="33">
         <v>4</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E20" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F20" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="35" t="s">
-        <v>536</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F20" s="35" t="s">
+      <c r="G20" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F21" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G21" s="80" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E22" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F23" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="40"/>
+      <c r="B24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="F24" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="49"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E25" s="35" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F21" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F22" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E23" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F24" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="39" t="s">
+      <c r="F25" s="35" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
-      <c r="B25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="F25" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="49"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E26" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="35" t="s">
+      <c r="G26" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="35" t="s">
+    </row>
+    <row r="27" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="40"/>
+      <c r="B27" s="74"/>
+      <c r="D27" s="74">
+        <v>5</v>
+      </c>
+      <c r="E27" s="80" t="s">
+        <v>640</v>
+      </c>
+      <c r="F27" s="80" t="s">
+        <v>641</v>
+      </c>
+      <c r="G27" s="80" t="s">
+        <v>643</v>
+      </c>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="40"/>
+      <c r="B28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80" t="s">
+        <v>642</v>
+      </c>
+      <c r="G28" s="80" t="s">
+        <v>644</v>
+      </c>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="40"/>
+      <c r="B29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="80" t="s">
+        <v>645</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>646</v>
+      </c>
+      <c r="G29" s="80" t="s">
+        <v>649</v>
+      </c>
+      <c r="H29" s="74"/>
+    </row>
+    <row r="30" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="40"/>
+      <c r="B30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80" t="s">
+        <v>647</v>
+      </c>
+      <c r="G30" s="80" t="s">
+        <v>650</v>
+      </c>
+      <c r="H30" s="74"/>
+    </row>
+    <row r="31" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="40"/>
+      <c r="B31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80" t="s">
+        <v>648</v>
+      </c>
+      <c r="G31" s="80" t="s">
+        <v>651</v>
+      </c>
+      <c r="H31" s="74"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D32" s="33">
+        <v>6</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F27" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D28" s="33">
-        <v>5</v>
-      </c>
-      <c r="E28" s="35" t="s">
+      <c r="F32" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F33" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="H33" s="73" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E34" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="35" t="s">
-        <v>536</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F29" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="35" t="s">
+      <c r="G34" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="H29" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E30" s="35" t="s">
+      <c r="H34" s="73" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E35" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G35" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H30" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E31" s="35" t="s">
+      <c r="H35" s="73" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E36" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="F36" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E32" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
-      <c r="B33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="F33" s="39" t="s">
+      <c r="G36" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="40"/>
-      <c r="B34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="F34" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="40"/>
-      <c r="B35" s="50"/>
-      <c r="D35" s="50">
-        <v>6</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="50"/>
-    </row>
-    <row r="36" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="40"/>
-      <c r="B36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="50" t="s">
-        <v>538</v>
-      </c>
-      <c r="I36" s="77" t="s">
-        <v>539</v>
+      <c r="H36" s="73" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
-      <c r="B37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="H37" s="50" t="s">
-        <v>540</v>
+      <c r="B37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="F37" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="73" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
-      <c r="B38" s="50"/>
-      <c r="D38" s="50">
-        <v>7</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>143</v>
+      <c r="B38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="F38" s="39" t="s">
+        <v>100</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="50" t="s">
-        <v>526</v>
+        <v>103</v>
+      </c>
+      <c r="H38" s="73" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="40"/>
       <c r="B39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="D39" s="50">
+        <v>7</v>
+      </c>
       <c r="E39" s="39" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="H39" s="73" t="s">
-        <v>526</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="40"/>
       <c r="B40" s="50"/>
       <c r="D40" s="50"/>
-      <c r="F40" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="H40" s="73" t="s">
-        <v>526</v>
+      <c r="E40" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="I40" s="75" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="40"/>
       <c r="B41" s="50"/>
       <c r="D41" s="50"/>
-      <c r="F41" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="H41" s="73" t="s">
-        <v>526</v>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="40"/>
       <c r="B42" s="50"/>
-      <c r="D42" s="50"/>
+      <c r="D42" s="50">
+        <v>8</v>
+      </c>
       <c r="E42" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="H42" s="73" t="s">
-        <v>526</v>
+        <v>142</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="40"/>
       <c r="B43" s="50"/>
       <c r="D43" s="50"/>
-      <c r="F43" s="39" t="s">
-        <v>541</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="H43" s="50" t="s">
-        <v>526</v>
+      <c r="E43" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="80" t="s">
+        <v>652</v>
+      </c>
+      <c r="H43" s="73" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7323,86 +6919,86 @@
       <c r="B44" s="50"/>
       <c r="D44" s="50"/>
       <c r="F44" s="39" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" s="50" t="s">
-        <v>526</v>
+        <v>146</v>
+      </c>
+      <c r="H44" s="73" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="50"/>
       <c r="D45" s="50"/>
-      <c r="E45" s="39" t="s">
-        <v>157</v>
+      <c r="F45" s="39" t="s">
+        <v>145</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="H45" s="73" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
-      <c r="B46" s="73"/>
-      <c r="D46" s="73"/>
+      <c r="B46" s="50"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="39" t="s">
-        <v>542</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>543</v>
+        <v>148</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="80" t="s">
+        <v>654</v>
       </c>
       <c r="H46" s="73" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="40"/>
-      <c r="B47" s="73"/>
-      <c r="D47" s="73"/>
+      <c r="B47" s="50"/>
+      <c r="D47" s="50"/>
       <c r="F47" s="39" t="s">
-        <v>554</v>
-      </c>
-      <c r="G47" s="39" t="s">
-        <v>555</v>
-      </c>
-      <c r="H47" s="73" t="s">
-        <v>526</v>
+        <v>536</v>
+      </c>
+      <c r="G47" s="80" t="s">
+        <v>653</v>
+      </c>
+      <c r="H47" s="50" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="40"/>
-      <c r="B48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="39" t="s">
-        <v>544</v>
-      </c>
+      <c r="B48" s="50"/>
+      <c r="D48" s="50"/>
       <c r="F48" s="39" t="s">
-        <v>546</v>
+        <v>150</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>548</v>
-      </c>
-      <c r="H48" s="73" t="s">
-        <v>526</v>
+        <v>151</v>
+      </c>
+      <c r="H48" s="50" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="40"/>
-      <c r="B49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="F49" s="39" t="s">
-        <v>547</v>
+      <c r="B49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="39" t="s">
+        <v>152</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>549</v>
+        <v>153</v>
       </c>
       <c r="H49" s="73" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7410,16 +7006,13 @@
       <c r="B50" s="73"/>
       <c r="D50" s="73"/>
       <c r="E50" s="39" t="s">
-        <v>545</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="H50" s="73" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7427,323 +7020,333 @@
       <c r="B51" s="73"/>
       <c r="D51" s="73"/>
       <c r="F51" s="39" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G51" s="39" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H51" s="73" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="40"/>
-      <c r="B52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="H52" s="50"/>
-    </row>
-    <row r="53" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="B53" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="33">
-        <v>1</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="H53" s="33" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="D54" s="33">
-        <v>2</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>164</v>
+      <c r="B52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="39" t="s">
+        <v>539</v>
+      </c>
+      <c r="F52" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="G52" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="H52" s="73" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="40"/>
+      <c r="B53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="F53" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="G53" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="H53" s="73" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="40"/>
+      <c r="B54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>545</v>
+      </c>
+      <c r="G54" s="39" t="s">
+        <v>548</v>
       </c>
       <c r="H54" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F55" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>165</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="40"/>
+      <c r="B55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="F55" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>547</v>
       </c>
       <c r="H55" s="73" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="40"/>
       <c r="B56" s="50"/>
       <c r="D56" s="50"/>
-      <c r="E56" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="G56" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="H56" s="73" t="s">
-        <v>537</v>
-      </c>
+      <c r="H56" s="50"/>
     </row>
     <row r="57" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="B57" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>89</v>
+      </c>
       <c r="D57" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F57" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="H57" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F58" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="G58" s="39" t="s">
-        <v>169</v>
+        <v>154</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="D58" s="33">
+        <v>2</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>159</v>
       </c>
       <c r="H58" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="40"/>
-      <c r="B59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="G59" s="39" t="s">
-        <v>173</v>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F59" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>160</v>
       </c>
       <c r="H59" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="40"/>
       <c r="B60" s="50"/>
-      <c r="D60" s="50">
-        <v>4</v>
-      </c>
+      <c r="D60" s="50"/>
       <c r="E60" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="F60" s="39" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H60" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="40"/>
-      <c r="B61" s="50"/>
-      <c r="D61" s="50"/>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="D61" s="33">
+        <v>3</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>161</v>
+      </c>
       <c r="F61" s="39" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="G61" s="39" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H61" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="40"/>
-      <c r="B62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="39" t="s">
-        <v>171</v>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F62" s="39" t="s">
+        <v>163</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H62" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="40"/>
       <c r="B63" s="50"/>
-      <c r="D63" s="50">
-        <v>5</v>
-      </c>
+      <c r="D63" s="50"/>
       <c r="E63" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G63" s="39" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H63" s="73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A64" s="40"/>
       <c r="B64" s="50"/>
-      <c r="D64" s="50"/>
+      <c r="D64" s="50">
+        <v>4</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>165</v>
+      </c>
       <c r="F64" s="39" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H64" s="73" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="40"/>
       <c r="B65" s="50"/>
       <c r="D65" s="50"/>
-      <c r="E65" s="39" t="s">
-        <v>171</v>
+      <c r="F65" s="39" t="s">
+        <v>170</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H65" s="73" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="40"/>
       <c r="B66" s="50"/>
       <c r="D66" s="50"/>
-      <c r="H66" s="50"/>
-    </row>
-    <row r="67" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="B67" s="65" t="s">
+      <c r="E66" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H66" s="73" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A67" s="40"/>
+      <c r="B67" s="50"/>
+      <c r="D67" s="50">
+        <v>5</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="H67" s="73" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="40"/>
+      <c r="B68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="F68" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G68" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H68" s="73" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="40"/>
+      <c r="B69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H69" s="73" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="40"/>
+      <c r="B70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="H70" s="50"/>
+    </row>
+    <row r="71" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="B71" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="65">
+        <v>1</v>
+      </c>
+      <c r="E71" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="65" t="s">
+      <c r="F71" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="65">
-        <v>1</v>
-      </c>
-      <c r="E67" s="63" t="s">
+      <c r="G71" s="63" t="s">
         <v>112</v>
-      </c>
-      <c r="F67" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="G67" s="63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="G68" s="63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65">
-        <v>2</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="F69" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="G69" s="66" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="G70" s="63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="G71" s="63" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B72" s="65"/>
       <c r="C72" s="65"/>
-      <c r="D72" s="65">
-        <v>3</v>
-      </c>
-      <c r="E72" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="F72" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="G72" s="64" t="s">
-        <v>134</v>
+      <c r="D72" s="65"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="G72" s="63" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B73" s="65"/>
       <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="G73" s="64" t="s">
-        <v>135</v>
+      <c r="D73" s="65">
+        <v>2</v>
+      </c>
+      <c r="E73" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" s="66" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -7751,11 +7354,11 @@
       <c r="C74" s="65"/>
       <c r="D74" s="65"/>
       <c r="E74" s="48"/>
-      <c r="F74" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="G74" s="64" t="s">
-        <v>136</v>
+      <c r="F74" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G74" s="63" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -7763,38 +7366,38 @@
       <c r="C75" s="65"/>
       <c r="D75" s="65"/>
       <c r="E75" s="48"/>
-      <c r="F75" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="G75" s="64" t="s">
-        <v>137</v>
+      <c r="F75" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G75" s="63" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B76" s="65"/>
       <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="48"/>
+      <c r="D76" s="65">
+        <v>3</v>
+      </c>
+      <c r="E76" s="48" t="s">
+        <v>119</v>
+      </c>
       <c r="F76" s="67" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G76" s="64" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B77" s="65"/>
       <c r="C77" s="65"/>
-      <c r="D77" s="65">
-        <v>4</v>
-      </c>
-      <c r="E77" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="F77" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="G77" s="63" t="s">
+      <c r="D77" s="65"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="G77" s="64" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7803,11 +7406,63 @@
       <c r="C78" s="65"/>
       <c r="D78" s="65"/>
       <c r="E78" s="48"/>
-      <c r="F78" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="G78" s="63" t="s">
-        <v>139</v>
+      <c r="F78" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="G78" s="64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B79" s="65"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="G79" s="64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G80" s="64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B81" s="65"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="65">
+        <v>4</v>
+      </c>
+      <c r="E81" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="G81" s="63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G82" s="63" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -7815,38 +7470,38 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="K1:IS2 C15:E18 H15:IS18 A79:B1048576 C36:D37 H37:IS37 H67:IS78 A67:A78 A1:B66 C79:IS65333 J3:IS3 H36 J36:IS36 E2:J2 E1:H1 C4:IS14 C3:H3 C19:IS35 C38:IS66">
-    <cfRule type="cellIs" dxfId="73" priority="80" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K1:IS2 C16:E19 H16:IS19 A83:B1048576 C40:D41 H41:IS41 H71:IS82 A71:A82 C83:IS65337 J3:IS4 H40 J40:IS40 E2:J2 E1:H1 C5:IS15 C3:H4 C42:IS70 A1:B70 C20:IS39">
+    <cfRule type="cellIs" dxfId="42" priority="80" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="81" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="71" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="86" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="87" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="69" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="88" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="89" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-1178"/>
-    <hyperlink ref="I36" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-1179"/>
+    <hyperlink ref="I40" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-1179"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId3"/>
@@ -7859,7 +7514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E240" sqref="E240"/>
     </sheetView>
@@ -7887,9 +7542,9 @@
       <c r="C1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -7925,30 +7580,30 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" s="49" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D3" s="49">
         <v>1</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.35">
       <c r="F4" s="39" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -7956,60 +7611,60 @@
         <v>2</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F5" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>191</v>
-      </c>
       <c r="I5" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F6" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>192</v>
-      </c>
       <c r="I6" s="49" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F7" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>193</v>
-      </c>
       <c r="I7" s="49" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F8" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="39" t="s">
-        <v>194</v>
-      </c>
       <c r="I8" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F9" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="G9" s="39" t="s">
-        <v>195</v>
-      </c>
       <c r="I9" s="49" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -8017,52 +7672,52 @@
         <v>3</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F11" s="39" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F12" s="39" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I12" s="49" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F13" s="39" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>592</v>
-      </c>
-      <c r="J13" s="77" t="s">
-        <v>594</v>
+        <v>587</v>
+      </c>
+      <c r="J13" s="75" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -8070,62 +7725,62 @@
         <v>4</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="73"/>
       <c r="D15" s="73"/>
       <c r="F15" s="39" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I15" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F16" s="39" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F17" s="39" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F18" s="39" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.35">
@@ -8133,87 +7788,87 @@
         <v>5</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G19" s="67" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H19" s="67"/>
       <c r="I19" s="49" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E20" s="67"/>
       <c r="F20" s="67" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H20" s="64"/>
       <c r="I20" s="49" t="s">
-        <v>567</v>
-      </c>
-      <c r="J20" s="77" t="s">
-        <v>568</v>
+        <v>562</v>
+      </c>
+      <c r="J20" s="75" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E21" s="67"/>
       <c r="F21" s="67" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G21" s="64" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H21" s="64"/>
       <c r="I21" s="49" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E22" s="67" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F22" s="67"/>
       <c r="G22" s="64" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H22" s="64"/>
       <c r="I22" s="49" t="s">
-        <v>556</v>
-      </c>
-      <c r="J22" s="77" t="s">
-        <v>575</v>
+        <v>551</v>
+      </c>
+      <c r="J22" s="75" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E23" s="39" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F24" s="39" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.35">
@@ -8221,190 +7876,190 @@
         <v>6</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F26" s="39" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F27" s="39" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I27" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F28" s="39" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E29" s="39" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F29" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="G29" s="39" t="s">
-        <v>227</v>
-      </c>
       <c r="I29" s="49" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F30" s="39" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E31" s="39" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I31" s="49" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F32" s="39" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I32" s="49" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F33" s="39" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I33" s="49" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E34" s="39" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I34" s="49" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F35" s="39" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I35" s="49" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F36" s="39" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I36" s="49" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E37" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="F37" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>244</v>
-      </c>
       <c r="I37" s="49" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F38" s="39" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I38" s="49" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F39" s="39" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I39" s="49" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F40" s="39" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I40" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.35">
@@ -8412,110 +8067,110 @@
         <v>7</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I41" s="49" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F42" s="39" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I42" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E43" s="39" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I43" s="49" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F44" s="39" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I44" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E45" s="39" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I45" s="49" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E46" s="39" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I46" s="49" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E47" s="39" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I47" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F48" s="39" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I48" s="49" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F49" s="39" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I49" s="49" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.35">
@@ -8523,53 +8178,53 @@
         <v>8</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="I50" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="4:10" ht="33" x14ac:dyDescent="0.35">
       <c r="F51" s="39" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H51" s="68"/>
       <c r="I51" s="49" t="s">
-        <v>556</v>
-      </c>
-      <c r="J51" s="77" t="s">
-        <v>557</v>
+        <v>551</v>
+      </c>
+      <c r="J51" s="75" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F52" s="39" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I52" s="49" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F53" s="39" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I53" s="49" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.35">
@@ -8577,52 +8232,52 @@
         <v>9</v>
       </c>
       <c r="E54" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="G54" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="F54" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="G54" s="39" t="s">
-        <v>277</v>
-      </c>
       <c r="I54" s="49" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F55" s="39" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I55" s="49" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F56" s="39" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G56" s="39" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="I56" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F57" s="39" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I57" s="49" t="s">
-        <v>598</v>
-      </c>
-      <c r="J57" s="77" t="s">
-        <v>599</v>
+        <v>593</v>
+      </c>
+      <c r="J57" s="75" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="4:10" ht="33" x14ac:dyDescent="0.35">
@@ -8630,1047 +8285,1047 @@
         <v>10</v>
       </c>
       <c r="E58" s="67" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F58" s="67"/>
       <c r="G58" s="64" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H58" s="64"/>
       <c r="I58" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E59" s="67" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F59" s="67" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G59" s="64" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H59" s="64"/>
       <c r="I59" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E60" s="67"/>
       <c r="F60" s="67" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G60" s="64" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H60" s="64"/>
       <c r="I60" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E61" s="67"/>
       <c r="F61" s="67" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G61" s="64" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H61" s="64"/>
       <c r="I61" s="49" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E62" s="67"/>
       <c r="F62" s="67" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G62" s="64" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="H62" s="64"/>
       <c r="I62" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E63" s="67" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F63" s="67" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G63" s="67" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H63" s="67"/>
       <c r="I63" s="49" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64" spans="4:10" ht="33" x14ac:dyDescent="0.35">
       <c r="E64" s="67"/>
       <c r="F64" s="67" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G64" s="64" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H64" s="64"/>
       <c r="I64" s="49" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E65" s="67"/>
       <c r="F65" s="67" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G65" s="64" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H65" s="64"/>
       <c r="I65" s="49" t="s">
-        <v>607</v>
-      </c>
-      <c r="J65" s="77" t="s">
-        <v>608</v>
+        <v>602</v>
+      </c>
+      <c r="J65" s="75" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="66" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E66" s="67"/>
       <c r="F66" s="67" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G66" s="64" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H66" s="64"/>
       <c r="I66" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E67" s="67"/>
       <c r="F67" s="67" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G67" s="64" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H67" s="64"/>
       <c r="I67" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E68" s="67"/>
       <c r="F68" s="67" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G68" s="64" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H68" s="64"/>
       <c r="I68" s="49" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E69" s="67" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F69" s="67" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G69" s="64" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H69" s="64"/>
       <c r="I69" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="5:10" ht="33" x14ac:dyDescent="0.35">
       <c r="E70" s="67"/>
       <c r="F70" s="67" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G70" s="64" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H70" s="64"/>
       <c r="I70" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E71" s="67" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F71" s="67" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G71" s="64" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H71" s="64"/>
       <c r="I71" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E72" s="67"/>
       <c r="F72" s="67" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G72" s="64" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="H72" s="64"/>
       <c r="I72" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E73" s="67"/>
       <c r="F73" s="67" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G73" s="64" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H73" s="64"/>
       <c r="I73" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E74" s="67"/>
       <c r="F74" s="67" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G74" s="64" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H74" s="64"/>
       <c r="I74" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="5:10" ht="33" x14ac:dyDescent="0.35">
       <c r="E75" s="67" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F75" s="67" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G75" s="64" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H75" s="64"/>
       <c r="I75" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E76" s="78" t="s">
-        <v>611</v>
+      <c r="E76" s="76" t="s">
+        <v>606</v>
       </c>
       <c r="F76" s="67" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G76" s="64" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H76" s="64"/>
       <c r="I76" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E77" s="69"/>
       <c r="F77" s="67" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G77" s="64" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H77" s="64"/>
       <c r="I77" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E78" s="69"/>
       <c r="F78" s="67" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G78" s="64" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H78" s="64"/>
       <c r="I78" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E79" s="69"/>
       <c r="F79" s="67" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G79" s="64" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H79" s="64"/>
       <c r="I79" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="5:10" ht="33" x14ac:dyDescent="0.35">
       <c r="E80" s="69"/>
       <c r="F80" s="67" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G80" s="64" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H80" s="64"/>
       <c r="I80" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E81" s="69"/>
       <c r="F81" s="67" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G81" s="64" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H81" s="64"/>
       <c r="I81" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E82" s="69"/>
       <c r="F82" s="67" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G82" s="64" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H82" s="64"/>
       <c r="I82" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E83" s="69"/>
       <c r="F83" s="67" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G83" s="64" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H83" s="64"/>
       <c r="I83" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E84" s="67" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F84" s="67" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G84" s="64" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H84" s="64"/>
       <c r="I84" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="5:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E85" s="67"/>
       <c r="F85" s="67" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G85" s="64" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H85" s="64"/>
       <c r="I85" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E86" s="67"/>
       <c r="F86" s="67" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G86" s="64" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H86" s="64"/>
       <c r="I86" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="87" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E87" s="67"/>
       <c r="F87" s="67" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G87" s="64" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H87" s="64"/>
       <c r="I87" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="5:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E88" s="67" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F88" s="67" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G88" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H88" s="64"/>
       <c r="I88" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E89" s="70"/>
       <c r="F89" s="67" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G89" s="64" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H89" s="64"/>
       <c r="I89" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E90" s="69"/>
       <c r="F90" s="67" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G90" s="64" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H90" s="64"/>
       <c r="I90" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E91" s="69"/>
       <c r="F91" s="67" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G91" s="64" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H91" s="64"/>
       <c r="I91" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E92" s="69"/>
       <c r="F92" s="67" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G92" s="64" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H92" s="64"/>
       <c r="I92" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="5:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E93" s="69"/>
       <c r="F93" s="67" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G93" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H93" s="64"/>
       <c r="I93" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E94" s="69"/>
       <c r="F94" s="67" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G94" s="64" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H94" s="64"/>
       <c r="I94" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E95" s="69"/>
       <c r="F95" s="67" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G95" s="64" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H95" s="64"/>
       <c r="I95" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E96" s="69"/>
       <c r="F96" s="67" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G96" s="64" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H96" s="64"/>
       <c r="I96" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="97" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E97" s="67" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F97" s="67" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G97" s="64" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H97" s="64"/>
       <c r="I97" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="5:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E98" s="67"/>
       <c r="F98" s="67" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G98" s="64" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H98" s="64"/>
       <c r="I98" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E99" s="67"/>
       <c r="F99" s="67" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G99" s="64" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H99" s="64"/>
       <c r="I99" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="100" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E100" s="67"/>
       <c r="F100" s="67" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G100" s="64" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H100" s="64"/>
       <c r="I100" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="101" spans="5:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E101" s="67" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F101" s="67" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G101" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H101" s="64"/>
       <c r="I101" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E102" s="70"/>
       <c r="F102" s="67" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G102" s="64" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H102" s="64"/>
       <c r="I102" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E103" s="69"/>
       <c r="F103" s="67" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G103" s="64" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H103" s="64"/>
       <c r="I103" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E104" s="69"/>
       <c r="F104" s="67" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G104" s="64" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H104" s="64"/>
       <c r="I104" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="105" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E105" s="69"/>
       <c r="F105" s="67" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G105" s="64" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H105" s="64"/>
       <c r="I105" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="5:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E106" s="69"/>
       <c r="F106" s="67" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G106" s="64" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H106" s="64"/>
       <c r="I106" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="107" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E107" s="69"/>
       <c r="F107" s="67" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G107" s="64" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H107" s="64"/>
       <c r="I107" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E108" s="69"/>
       <c r="F108" s="67" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G108" s="64" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H108" s="64"/>
       <c r="I108" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E109" s="69"/>
       <c r="F109" s="67" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G109" s="64" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H109" s="64"/>
       <c r="I109" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E110" s="67" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F110" s="67" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G110" s="64" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H110" s="64"/>
       <c r="I110" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="5:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E111" s="67"/>
       <c r="F111" s="67" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G111" s="64" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H111" s="64"/>
       <c r="I111" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E112" s="67"/>
       <c r="F112" s="67" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G112" s="64" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H112" s="64"/>
       <c r="I112" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E113" s="67"/>
       <c r="F113" s="67" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G113" s="64" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H113" s="64"/>
       <c r="I113" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="5:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E114" s="67" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F114" s="67" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G114" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H114" s="64"/>
       <c r="I114" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="115" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E115" s="67"/>
       <c r="F115" s="67" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G115" s="64" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H115" s="64"/>
       <c r="I115" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E116" s="69"/>
       <c r="F116" s="67" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G116" s="64" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H116" s="64"/>
       <c r="I116" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="117" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E117" s="69"/>
       <c r="F117" s="67" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G117" s="64" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H117" s="64"/>
       <c r="I117" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="118" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E118" s="69"/>
       <c r="F118" s="67" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G118" s="64" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H118" s="64"/>
       <c r="I118" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="119" spans="5:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E119" s="69"/>
       <c r="F119" s="67" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G119" s="64" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H119" s="64"/>
       <c r="I119" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="120" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E120" s="69"/>
       <c r="F120" s="67" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G120" s="64" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H120" s="64"/>
       <c r="I120" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E121" s="69"/>
       <c r="F121" s="67" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G121" s="64" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H121" s="64"/>
       <c r="I121" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E122" s="69"/>
       <c r="F122" s="67" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G122" s="64" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H122" s="64"/>
       <c r="I122" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E123" s="67" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F123" s="67" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G123" s="64" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H123" s="64"/>
       <c r="I123" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="124" spans="5:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E124" s="67"/>
       <c r="F124" s="67" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G124" s="64" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H124" s="64"/>
       <c r="I124" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E125" s="67"/>
       <c r="F125" s="67" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G125" s="64" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H125" s="64"/>
       <c r="I125" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E126" s="67"/>
       <c r="F126" s="67" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G126" s="64" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H126" s="64"/>
       <c r="I126" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="5:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E127" s="67" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F127" s="67" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G127" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H127" s="64"/>
       <c r="I127" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="128" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E128" s="67"/>
       <c r="F128" s="67" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G128" s="64" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H128" s="64"/>
       <c r="I128" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E129" s="69"/>
       <c r="F129" s="67" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G129" s="64" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H129" s="64"/>
       <c r="I129" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E130" s="69"/>
       <c r="F130" s="67" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G130" s="64" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H130" s="64"/>
       <c r="I130" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E131" s="69"/>
       <c r="F131" s="67" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G131" s="64" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H131" s="64"/>
       <c r="I131" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E132" s="69"/>
       <c r="F132" s="67" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G132" s="64" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H132" s="64"/>
       <c r="I132" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E133" s="69"/>
       <c r="F133" s="67" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G133" s="64" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H133" s="64"/>
       <c r="I133" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E134" s="69"/>
       <c r="F134" s="67" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G134" s="64" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H134" s="64"/>
       <c r="I134" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E135" s="69"/>
       <c r="F135" s="67" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G135" s="64" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H135" s="64"/>
       <c r="I135" s="73" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.35">
@@ -9678,10 +9333,10 @@
         <v>11</v>
       </c>
       <c r="E136" s="39" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G136" s="64" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H136" s="64"/>
     </row>
@@ -9689,17 +9344,17 @@
       <c r="B137" s="50"/>
       <c r="D137" s="50"/>
       <c r="E137" s="67" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F137" s="67" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G137" s="64" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H137" s="64"/>
       <c r="I137" s="50" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.35">
@@ -9707,80 +9362,80 @@
       <c r="D138" s="50"/>
       <c r="E138" s="67"/>
       <c r="F138" s="67" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G138" s="64" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H138" s="64"/>
       <c r="I138" s="50" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="139" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E139" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E140" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E141" s="2"/>
       <c r="F141" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G141" s="39" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I141" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E142" s="2"/>
       <c r="F142" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E143" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H143" s="71"/>
       <c r="I143" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="144" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -9788,135 +9443,135 @@
         <v>12</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="49" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E145" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F145" s="67" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G145" s="64" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H145" s="64"/>
       <c r="I145" s="73" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F146" s="67" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G146" s="64" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H146" s="64"/>
       <c r="I146" s="73" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F147" s="67" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G147" s="64" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H147" s="64"/>
       <c r="I147" s="73" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F148" s="67" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G148" s="64" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H148" s="64"/>
       <c r="I148" s="73" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E149" s="39" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F149" s="67" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G149" s="39" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="I149" s="73" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="150" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="F150" s="67" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G150" s="39" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I150" s="73" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F151" s="67" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G151" s="39" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="I151" s="73" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F152" s="67" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G152" s="39" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="I152" s="73" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E153" s="39" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G153" s="39" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="I153" s="73" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E154" s="39" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G154" s="39" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I154" s="73" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.35">
@@ -9924,103 +9579,103 @@
         <v>13</v>
       </c>
       <c r="E155" s="39" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G155" s="39" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="I155" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F156" s="39" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="I156" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E157" s="39" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G157" s="39" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I157" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B159" s="49" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C159" s="39" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D159" s="49">
         <v>1</v>
       </c>
       <c r="E159" s="39" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F159" s="39" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G159" s="39" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I159" s="49" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F160" s="39" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G160" s="39" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="I160" s="49" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B162" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="C162" s="39" t="s">
         <v>446</v>
-      </c>
-      <c r="C162" s="39" t="s">
-        <v>451</v>
       </c>
       <c r="D162" s="49">
         <v>1</v>
       </c>
       <c r="E162" s="39" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F162" s="39" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G162" s="39" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I162" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F163" s="39" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G163" s="39" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="I163" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.35">
@@ -10028,140 +9683,140 @@
         <v>2</v>
       </c>
       <c r="E164" s="39" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F164" s="39" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G164" s="39" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I164" s="49" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="165" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="F165" s="39" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G165" s="39" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="I165" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E166" s="39" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F166" s="39" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G166" s="39" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I166" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F167" s="39" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G167" s="39" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I167" s="49" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F168" s="39" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G168" s="39" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="I168" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F169" s="39" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G169" s="39" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="I169" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E170" s="39" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G170" s="39" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I170" s="49" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F171" s="39" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I171" s="49" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F172" s="39" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G172" s="39" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I172" s="49" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E173" s="39" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G173" s="39" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="I173" s="73" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F174" s="39" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G174" s="39" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I174" s="73" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F175" s="39" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G175" s="39" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I175" s="73" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.35">
@@ -10169,63 +9824,63 @@
         <v>3</v>
       </c>
       <c r="E176" s="39" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F176" s="39" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G176" s="39" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="I176" s="73" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="177" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F177" s="39" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G177" s="39" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I177" s="73" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="178" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F178" s="39" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G178" s="39" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="I178" s="49" t="s">
-        <v>620</v>
-      </c>
-      <c r="J178" s="77" t="s">
-        <v>621</v>
+        <v>615</v>
+      </c>
+      <c r="J178" s="75" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="179" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F179" s="39" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G179" s="39" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="I179" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="180" spans="4:10" ht="33" x14ac:dyDescent="0.35">
       <c r="E180" s="39" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G180" s="39" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I180" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="181" spans="4:10" x14ac:dyDescent="0.35">
@@ -10233,63 +9888,63 @@
         <v>4</v>
       </c>
       <c r="E181" s="39" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F181" s="39" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G181" s="39" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="I181" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="182" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F182" s="39" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G182" s="39" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I182" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="183" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F183" s="39" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G183" s="39" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="I183" s="73" t="s">
-        <v>620</v>
-      </c>
-      <c r="J183" s="77" t="s">
-        <v>621</v>
+        <v>615</v>
+      </c>
+      <c r="J183" s="75" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="184" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F184" s="39" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G184" s="39" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="I184" s="49" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="185" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E185" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="G185" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="G185" s="39" t="s">
-        <v>489</v>
-      </c>
       <c r="I185" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="4:10" x14ac:dyDescent="0.35">
@@ -10297,24 +9952,24 @@
         <v>5</v>
       </c>
       <c r="E186" s="39" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G186" s="39" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="I186" s="49" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="187" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E187" s="39" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G187" s="39" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I187" s="49" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="188" spans="4:10" ht="33" x14ac:dyDescent="0.35">
@@ -10322,49 +9977,49 @@
         <v>6</v>
       </c>
       <c r="E188" s="39" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F188" s="39" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G188" s="39" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="I188" s="49" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="189" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F189" s="39" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G189" s="39" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="I189" s="49" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="190" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E190" s="39" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G190" s="39" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="I190" s="49" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="191" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E191" s="39" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G191" s="39" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I191" s="49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="192" spans="4:10" x14ac:dyDescent="0.35">
@@ -10372,107 +10027,107 @@
         <v>7</v>
       </c>
       <c r="E192" s="39" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G192" s="39" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="I192" s="49" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="194" spans="2:10" ht="66" x14ac:dyDescent="0.35">
       <c r="B194" s="62" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C194" s="39" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D194" s="62">
         <v>1</v>
       </c>
       <c r="E194" s="39" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F194" s="39" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="G194" s="39" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I194" s="62" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="195" spans="2:10" ht="66" x14ac:dyDescent="0.35">
       <c r="B195" s="62"/>
       <c r="D195" s="62"/>
       <c r="F195" s="39" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G195" s="39" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I195" s="62" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="196" spans="2:10" ht="66" x14ac:dyDescent="0.35">
       <c r="B196" s="73"/>
       <c r="D196" s="73"/>
       <c r="F196" s="39" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G196" s="39" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I196" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="197" spans="2:10" ht="66" x14ac:dyDescent="0.35">
       <c r="B197" s="73"/>
       <c r="D197" s="73"/>
       <c r="F197" s="39" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G197" s="39" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I197" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="2:10" ht="66" x14ac:dyDescent="0.35">
       <c r="B198" s="62"/>
       <c r="D198" s="62"/>
       <c r="F198" s="39" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G198" s="39" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="I198" s="62" t="s">
-        <v>607</v>
-      </c>
-      <c r="J198" s="77" t="s">
-        <v>637</v>
+        <v>602</v>
+      </c>
+      <c r="J198" s="75" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="199" spans="2:10" ht="66" x14ac:dyDescent="0.35">
       <c r="B199" s="62"/>
       <c r="D199" s="62"/>
       <c r="F199" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="G199" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="I199" s="62" t="s">
+        <v>631</v>
+      </c>
+      <c r="J199" s="75" t="s">
         <v>632</v>
-      </c>
-      <c r="G199" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="I199" s="62" t="s">
-        <v>636</v>
-      </c>
-      <c r="J199" s="77" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
@@ -10481,214 +10136,214 @@
         <v>2</v>
       </c>
       <c r="E200" s="39" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F200" s="39" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G200" s="39" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I200" s="62" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="201" spans="2:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="B201" s="62"/>
       <c r="D201" s="62"/>
       <c r="F201" s="39" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G201" s="39" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="I201" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B202" s="62"/>
       <c r="D202" s="62"/>
       <c r="E202" s="39" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F202" s="39" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G202" s="39" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I202" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B203" s="62"/>
       <c r="D203" s="62"/>
       <c r="F203" s="39" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G203" s="39" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I203" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" s="62"/>
       <c r="D204" s="62"/>
       <c r="F204" s="39" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G204" s="39" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="I204" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B205" s="62"/>
       <c r="D205" s="62"/>
       <c r="F205" s="39" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G205" s="39" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="I205" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B206" s="62"/>
       <c r="D206" s="62"/>
       <c r="E206" s="39" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G206" s="39" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I206" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B207" s="62"/>
       <c r="D207" s="62"/>
       <c r="F207" s="39" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G207" s="39" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I207" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B208" s="62"/>
       <c r="D208" s="62"/>
       <c r="F208" s="39" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G208" s="39" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I208" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B209" s="62"/>
       <c r="D209" s="62"/>
       <c r="E209" s="39" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G209" s="39" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="I209" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" s="62"/>
       <c r="D210" s="62"/>
       <c r="F210" s="39" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G210" s="39" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I210" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B211" s="62"/>
       <c r="D211" s="62"/>
       <c r="F211" s="39" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G211" s="39" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I211" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B212" s="62"/>
       <c r="D212" s="62"/>
       <c r="E212" s="39" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G212" s="39" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="I212" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B213" s="62"/>
       <c r="D213" s="62"/>
       <c r="E213" s="39" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G213" s="39" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I213" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="214" spans="2:10" ht="33" x14ac:dyDescent="0.35">
       <c r="B214" s="62"/>
       <c r="D214" s="62"/>
       <c r="F214" s="39" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G214" s="39" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I214" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" s="62"/>
       <c r="D215" s="62"/>
       <c r="F215" s="39" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G215" s="39" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="I215" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.35">
@@ -10697,71 +10352,71 @@
         <v>3</v>
       </c>
       <c r="E216" s="39" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F216" s="39" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G216" s="39" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="I216" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" s="62"/>
       <c r="D217" s="62"/>
       <c r="F217" s="39" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G217" s="39" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I217" s="73" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" s="62"/>
       <c r="D218" s="62"/>
       <c r="F218" s="39" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G218" s="39" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="I218" s="73" t="s">
-        <v>620</v>
-      </c>
-      <c r="J218" s="77" t="s">
-        <v>621</v>
+        <v>615</v>
+      </c>
+      <c r="J218" s="75" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B219" s="62"/>
       <c r="D219" s="62"/>
       <c r="F219" s="39" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G219" s="39" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="I219" s="62" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="220" spans="2:10" ht="33" x14ac:dyDescent="0.35">
       <c r="B220" s="62"/>
       <c r="D220" s="62"/>
       <c r="E220" s="39" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G220" s="39" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I220" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.35">
@@ -10770,71 +10425,71 @@
         <v>4</v>
       </c>
       <c r="E221" s="39" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F221" s="39" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G221" s="39" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="I221" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B222" s="62"/>
       <c r="D222" s="62"/>
       <c r="F222" s="39" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G222" s="39" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I222" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B223" s="62"/>
       <c r="D223" s="62"/>
       <c r="F223" s="39" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G223" s="39" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="I223" s="73" t="s">
-        <v>620</v>
-      </c>
-      <c r="J223" s="77" t="s">
-        <v>621</v>
+        <v>615</v>
+      </c>
+      <c r="J223" s="75" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B224" s="62"/>
       <c r="D224" s="62"/>
       <c r="F224" s="39" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G224" s="39" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="I224" s="62" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B225" s="62"/>
       <c r="D225" s="62"/>
       <c r="E225" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="G225" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="G225" s="39" t="s">
-        <v>489</v>
-      </c>
       <c r="I225" s="73" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.35">
@@ -10843,26 +10498,26 @@
         <v>5</v>
       </c>
       <c r="E226" s="39" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G226" s="39" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="I226" s="62" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B227" s="62"/>
       <c r="D227" s="62"/>
       <c r="E227" s="39" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G227" s="39" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I227" s="62" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="228" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -10871,68 +10526,68 @@
         <v>6</v>
       </c>
       <c r="E228" s="39" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F228" s="39" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G228" s="39" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="I228" s="62" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="229" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B229" s="62"/>
       <c r="D229" s="62"/>
       <c r="F229" s="39" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G229" s="39" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="I229" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B230" s="62"/>
       <c r="D230" s="62"/>
       <c r="F230" s="39" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G230" s="39" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I230" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B231" s="62"/>
       <c r="D231" s="62"/>
       <c r="E231" s="39" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G231" s="39" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="I231" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B232" s="62"/>
       <c r="D232" s="62"/>
       <c r="E232" s="39" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G232" s="39" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I232" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.35">
@@ -10941,79 +10596,79 @@
         <v>7</v>
       </c>
       <c r="E233" s="39" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G233" s="39" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="I233" s="73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B235" s="49" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C235" s="39" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D235" s="49">
         <v>1</v>
       </c>
       <c r="E235" s="39" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F235" s="39" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G235" s="39" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I235" s="49" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E236" s="72" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F236" s="39" t="s">
+        <v>512</v>
+      </c>
+      <c r="G236" s="39" t="s">
         <v>517</v>
-      </c>
-      <c r="G236" s="39" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F237" s="39" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G237" s="39" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F238" s="39" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G238" s="39" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F239" s="39" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G239" s="39" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F240" s="39" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G240" s="39" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -11022,136 +10677,136 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="L1:IT2 E2:K2 E1:I1 C19:D22 I19:IT19 C52:IT56 C51:F51 I51 C136:F136 A137:D138 C139:D145 A139:B193 E142:H142 E141:F141 G140:H140 I58:IT64 C146:E152 G149:IT152 A234:B1048576 C234:IT65310 K51:IT51 I20 K20:IT20 C3:IT12 C24:IT50 C23:H23 J23:IT23 I21:IT21 I22 K22:IT22 C14:IT18 C13:I13 K13:IT13 C57:I57 K57:IT57 I65 K65:IT65 A1:B136 C58:D135 I66:IT148 I145:I154 C178:I178 K178:IT178 C185:IT193 K183:IT183 H183 C183:F184 H184:IT184 C153:IT177 C179:IT182 A218:F219 H219:IT219 A223:F224 H224:IT224 H218 K218:IT218 H223 K223:IT223 A200:IT217 A220:IT222 A225:IT233">
-    <cfRule type="cellIs" dxfId="66" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="64" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="62" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="38" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="39" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I22 I24:I182 I184:I217 I219:I222 I224:I1048576">
-    <cfRule type="cellIs" dxfId="60" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140 E143 E139:H139 E144:H144 E145">
-    <cfRule type="cellIs" dxfId="59" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142:H144 E141:F141 E139:H140 E145">
-    <cfRule type="cellIs" dxfId="57" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198:F199 A194:IT197 I198:I199 K198:IT199">
-    <cfRule type="cellIs" dxfId="56" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198:H198">
-    <cfRule type="cellIs" dxfId="54" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G199:H199">
-    <cfRule type="cellIs" dxfId="52" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="notContainsBlanks" dxfId="50" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="16">
       <formula>LEN(TRIM(H1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I183">
-    <cfRule type="cellIs" dxfId="49" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I183">
-    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:G184">
-    <cfRule type="cellIs" dxfId="46" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G218:G219">
-    <cfRule type="cellIs" dxfId="35" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223:G224">
-    <cfRule type="cellIs" dxfId="31" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I218">
-    <cfRule type="cellIs" dxfId="27" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I218">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I223">
-    <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I223">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/qa/01.测试用例/宠物系统/宠物图鉴/宠物图鉴测试用例.xlsx
+++ b/qa/01.测试用例/宠物系统/宠物图鉴/宠物图鉴测试用例.xlsx
@@ -19,12 +19,12 @@
     <sheet name="IM提示" sheetId="37" r:id="rId5"/>
     <sheet name="附录" sheetId="27" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="660">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -2552,6 +2552,25 @@
   <si>
     <t>头像显示为彩色头像，如图</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到宠物列表界面后，再切换回宠物图鉴界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2556</t>
   </si>
 </sst>
 </file>
@@ -3363,7 +3382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3565,6 +3584,12 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3574,8 +3599,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="137">
@@ -3717,7 +3745,18 @@
     <cellStyle name="好 2" xfId="79"/>
     <cellStyle name="检查单元格 2" xfId="25"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3735,6 +3774,75 @@
         <extend val="0"/>
         <color indexed="48"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5161,10 +5269,10 @@
     </row>
     <row r="7" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6310,11 +6418,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46:G47"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -6339,9 +6447,9 @@
       <c r="C1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
     </row>
     <row r="2" spans="1:10" s="36" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -6618,8 +6726,11 @@
       <c r="F21" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="80" t="s">
+      <c r="G21" s="78" t="s">
         <v>639</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -6632,6 +6743,9 @@
       <c r="G22" s="35" t="s">
         <v>82</v>
       </c>
+      <c r="H22" s="33" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F23" s="39" t="s">
@@ -6639,6 +6753,9 @@
       </c>
       <c r="G23" s="39" t="s">
         <v>83</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6651,7 +6768,9 @@
       <c r="G24" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="49"/>
+      <c r="H24" s="49" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E25" s="35" t="s">
@@ -6663,6 +6782,9 @@
       <c r="G25" s="35" t="s">
         <v>88</v>
       </c>
+      <c r="H25" s="33" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="39" t="s">
@@ -6670,6 +6792,9 @@
       </c>
       <c r="G26" s="35" t="s">
         <v>87</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6678,70 +6803,80 @@
       <c r="D27" s="74">
         <v>5</v>
       </c>
-      <c r="E27" s="80" t="s">
+      <c r="E27" s="78" t="s">
         <v>640</v>
       </c>
-      <c r="F27" s="80" t="s">
+      <c r="F27" s="78" t="s">
         <v>641</v>
       </c>
-      <c r="G27" s="80" t="s">
+      <c r="G27" s="78" t="s">
         <v>643</v>
       </c>
-      <c r="H27" s="74"/>
+      <c r="H27" s="74" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="28" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="40"/>
       <c r="B28" s="74"/>
       <c r="D28" s="74"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80" t="s">
+      <c r="E28" s="78"/>
+      <c r="F28" s="78" t="s">
         <v>642</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="78" t="s">
         <v>644</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="74" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="40"/>
       <c r="B29" s="74"/>
       <c r="D29" s="74"/>
-      <c r="E29" s="80" t="s">
+      <c r="E29" s="78" t="s">
         <v>645</v>
       </c>
-      <c r="F29" s="80" t="s">
+      <c r="F29" s="78" t="s">
         <v>646</v>
       </c>
-      <c r="G29" s="80" t="s">
+      <c r="G29" s="78" t="s">
         <v>649</v>
       </c>
-      <c r="H29" s="74"/>
+      <c r="H29" s="74" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="30" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
       <c r="B30" s="74"/>
       <c r="D30" s="74"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80" t="s">
+      <c r="E30" s="78"/>
+      <c r="F30" s="78" t="s">
         <v>647</v>
       </c>
-      <c r="G30" s="80" t="s">
+      <c r="G30" s="78" t="s">
         <v>650</v>
       </c>
-      <c r="H30" s="74"/>
+      <c r="H30" s="74" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="31" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="40"/>
       <c r="B31" s="74"/>
       <c r="D31" s="74"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80" t="s">
+      <c r="E31" s="78"/>
+      <c r="F31" s="78" t="s">
         <v>648</v>
       </c>
-      <c r="G31" s="80" t="s">
+      <c r="G31" s="78" t="s">
         <v>651</v>
       </c>
-      <c r="H31" s="74"/>
+      <c r="H31" s="74" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D32" s="33">
@@ -6907,7 +7042,7 @@
       <c r="E43" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="G43" s="80" t="s">
+      <c r="G43" s="78" t="s">
         <v>652</v>
       </c>
       <c r="H43" s="73" t="s">
@@ -6952,7 +7087,7 @@
       <c r="F46" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="G46" s="80" t="s">
+      <c r="G46" s="78" t="s">
         <v>654</v>
       </c>
       <c r="H46" s="73" t="s">
@@ -6966,7 +7101,7 @@
       <c r="F47" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="G47" s="80" t="s">
+      <c r="G47" s="78" t="s">
         <v>653</v>
       </c>
       <c r="H47" s="50" t="s">
@@ -7220,7 +7355,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="40"/>
       <c r="B65" s="50"/>
       <c r="D65" s="50"/>
@@ -7234,7 +7369,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="40"/>
       <c r="B66" s="50"/>
       <c r="D66" s="50"/>
@@ -7248,7 +7383,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A67" s="40"/>
       <c r="B67" s="50"/>
       <c r="D67" s="50">
@@ -7267,7 +7402,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="40"/>
       <c r="B68" s="50"/>
       <c r="D68" s="50"/>
@@ -7281,7 +7416,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="40"/>
       <c r="B69" s="50"/>
       <c r="D69" s="50"/>
@@ -7295,13 +7430,13 @@
         <v>532</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="40"/>
       <c r="B70" s="50"/>
       <c r="D70" s="50"/>
       <c r="H70" s="50"/>
     </row>
-    <row r="71" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B71" s="65" t="s">
         <v>108</v>
       </c>
@@ -7320,8 +7455,11 @@
       <c r="G71" s="63" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H71" s="77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B72" s="65"/>
       <c r="C72" s="65"/>
       <c r="D72" s="65"/>
@@ -7332,137 +7470,189 @@
       <c r="G72" s="63" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H72" s="77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="40"/>
       <c r="B73" s="65"/>
       <c r="C73" s="65"/>
-      <c r="D73" s="65">
-        <v>2</v>
-      </c>
-      <c r="E73" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="G73" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D73" s="65"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="82" t="s">
+        <v>657</v>
+      </c>
+      <c r="G73" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="H73" s="77" t="s">
+        <v>658</v>
+      </c>
+      <c r="I73" s="75" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B74" s="65"/>
       <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="G74" s="63" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D74" s="65">
+        <v>2</v>
+      </c>
+      <c r="E74" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="G74" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="H74" s="77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B75" s="65"/>
       <c r="C75" s="65"/>
       <c r="D75" s="65"/>
       <c r="E75" s="48"/>
       <c r="F75" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G75" s="63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="H75" s="77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B76" s="65"/>
       <c r="C76" s="65"/>
-      <c r="D76" s="65">
-        <v>3</v>
-      </c>
-      <c r="E76" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="F76" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="G76" s="64" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D76" s="65"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G76" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="H76" s="77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B77" s="65"/>
       <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="48"/>
+      <c r="D77" s="65">
+        <v>3</v>
+      </c>
+      <c r="E77" s="48" t="s">
+        <v>119</v>
+      </c>
       <c r="F77" s="67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G77" s="64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="H77" s="77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B78" s="65"/>
       <c r="C78" s="65"/>
       <c r="D78" s="65"/>
       <c r="E78" s="48"/>
       <c r="F78" s="67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G78" s="64" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="H78" s="77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B79" s="65"/>
       <c r="C79" s="65"/>
       <c r="D79" s="65"/>
       <c r="E79" s="48"/>
       <c r="F79" s="67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G79" s="64" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="H79" s="77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B80" s="65"/>
       <c r="C80" s="65"/>
       <c r="D80" s="65"/>
       <c r="E80" s="48"/>
       <c r="F80" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G80" s="64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="H80" s="77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="65"/>
       <c r="C81" s="65"/>
-      <c r="D81" s="65">
-        <v>4</v>
-      </c>
-      <c r="E81" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="F81" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="G81" s="63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D81" s="65"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G81" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="H81" s="77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="65"/>
       <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="48"/>
+      <c r="D82" s="65">
+        <v>4</v>
+      </c>
+      <c r="E82" s="48" t="s">
+        <v>125</v>
+      </c>
       <c r="F82" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="G82" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="H82" s="77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B83" s="65"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="G82" s="63" t="s">
+      <c r="G83" s="63" t="s">
         <v>137</v>
+      </c>
+      <c r="H83" s="77" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -7470,43 +7660,44 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="K1:IS2 C16:E19 H16:IS19 A83:B1048576 C40:D41 H41:IS41 H71:IS82 A71:A82 C83:IS65337 J3:IS4 H40 J40:IS40 E2:J2 E1:H1 C5:IS15 C3:H4 C42:IS70 A1:B70 C20:IS39">
-    <cfRule type="cellIs" dxfId="42" priority="80" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K1:IS2 C16:E19 H16:IS19 A84:B1048576 C40:D41 H41:IS41 A71:A83 C84:IS65338 J3:IS4 H40 J40:IS40 E2:J2 E1:H1 C5:IS15 C3:H4 C42:IS70 A1:B70 C20:IS39 H74:IS83 J73:IS73 H71:IS72 H73:H83">
+    <cfRule type="cellIs" dxfId="50" priority="80" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="81" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="40" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="86" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="87" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="38" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="88" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="89" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-1178"/>
     <hyperlink ref="I40" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-1179"/>
+    <hyperlink ref="I73" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-2556"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId4"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -7542,9 +7733,9 @@
       <c r="C1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -10677,136 +10868,136 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="L1:IT2 E2:K2 E1:I1 C19:D22 I19:IT19 C52:IT56 C51:F51 I51 C136:F136 A137:D138 C139:D145 A139:B193 E142:H142 E141:F141 G140:H140 I58:IT64 C146:E152 G149:IT152 A234:B1048576 C234:IT65310 K51:IT51 I20 K20:IT20 C3:IT12 C24:IT50 C23:H23 J23:IT23 I21:IT21 I22 K22:IT22 C14:IT18 C13:I13 K13:IT13 C57:I57 K57:IT57 I65 K65:IT65 A1:B136 C58:D135 I66:IT148 I145:I154 C178:I178 K178:IT178 C185:IT193 K183:IT183 H183 C183:F184 H184:IT184 C153:IT177 C179:IT182 A218:F219 H219:IT219 A223:F224 H224:IT224 H218 K218:IT218 H223 K223:IT223 A200:IT217 A220:IT222 A225:IT233">
-    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="34" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="31" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="38" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I22 I24:I182 I184:I217 I219:I222 I224:I1048576">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140 E143 E139:H139 E144:H144 E145">
-    <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142:H144 E141:F141 E139:H140 E145">
-    <cfRule type="cellIs" dxfId="26" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="30" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198:F199 A194:IT197 I198:I199 K198:IT199">
-    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198:H198">
-    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="22" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="23" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G199:H199">
-    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="20" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="21" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="16">
       <formula>LEN(TRIM(H1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I183">
-    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I183">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:G184">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G218:G219">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223:G224">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I218">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I218">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I223">
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I223">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
